--- a/Swapnotory/DataBase And Application/adm_codes.xlsx
+++ b/Swapnotory/DataBase And Application/adm_codes.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>CODE_ID</t>
   </si>
@@ -53,19 +53,22 @@
     <t>UPDATED_AT</t>
   </si>
   <si>
+    <t>Project Statistics</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>ACE-BLOOD</t>
   </si>
   <si>
     <t>Blood Groups</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>ACE-MARI</t>
   </si>
   <si>
-    <t>Maritual Status</t>
+    <t>Marital Status</t>
   </si>
   <si>
     <t>ACE-GENDER</t>
@@ -83,19 +86,43 @@
     <t>ACE-USER</t>
   </si>
   <si>
-    <t>USER TYPE</t>
+    <t>User Type</t>
   </si>
   <si>
     <t>ACE-RELI</t>
   </si>
   <si>
+    <t>Religion</t>
+  </si>
+  <si>
     <t>Religions</t>
   </si>
   <si>
     <t>ACE-MONTH</t>
   </si>
   <si>
-    <t>MONTH</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Project Status</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>DESIG</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>Exp-Category</t>
+  </si>
+  <si>
+    <t>Expense Category</t>
   </si>
 </sst>
 </file>
@@ -195,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:N8" totalsRowShown="0" headerRowCount="1">
-  <autoFilter ref="A1:N8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:N13" totalsRowShown="0" headerRowCount="1">
+  <autoFilter ref="A1:N13"/>
   <tableColumns count="14">
     <tableColumn id="1" name="CODE_ID"/>
     <tableColumn id="2" name="PARENT"/>
@@ -228,10 +255,10 @@
   <cols>
     <col min="1" max="1" width="13.64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.09" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.64" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.91" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.18" bestFit="1" customWidth="1"/>
@@ -239,7 +266,7 @@
     <col min="11" max="11" width="17.18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47.91" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="20">
@@ -288,54 +315,54 @@
     </row>
     <row r="2" customHeight="1" ht="20">
       <c r="A2" s="5" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>45183</v>
+        <v>45323</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" customHeight="1" ht="20">
       <c r="A3" s="5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>1000</v>
@@ -348,24 +375,24 @@
     </row>
     <row r="4" customHeight="1" ht="20">
       <c r="A4" s="5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>1000</v>
@@ -374,123 +401,285 @@
         <v>45183</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="n">
+        <v>45327.2647337963</v>
+      </c>
     </row>
     <row r="5" customHeight="1" ht="20">
       <c r="A5" s="5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" customHeight="1" ht="20">
       <c r="A6" s="5" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" customHeight="1" ht="20">
       <c r="A7" s="5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7" t="n">
+        <v>45321.4710416667</v>
+      </c>
     </row>
     <row r="8" customHeight="1" ht="20">
       <c r="A8" s="5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="L8" s="7" t="n">
+        <v>45183</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="7" t="n">
+        <v>45321.4853240741</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="7" t="n">
         <v>45192</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7" t="n">
+        <v>45321.4728240741</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>45323</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>45321</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>45319</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="7" t="n">
+        <v>45321.4714236111</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>45322</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="7" t="n">
+        <v>45322.6141898148</v>
+      </c>
     </row>
   </sheetData>
   <tableParts count="1">
